--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H2">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I2">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J2">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="N2">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="O2">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="P2">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="Q2">
-        <v>28.47664456214396</v>
+        <v>43.40240682844445</v>
       </c>
       <c r="R2">
-        <v>28.47664456214396</v>
+        <v>390.621661456</v>
       </c>
       <c r="S2">
-        <v>0.0005539164126988904</v>
+        <v>0.0006992686194372577</v>
       </c>
       <c r="T2">
-        <v>0.0005539164126988904</v>
+        <v>0.0007379823187338529</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H3">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I3">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J3">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="N3">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="O3">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="P3">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="Q3">
-        <v>54.67425149171278</v>
+        <v>82.20838980875001</v>
       </c>
       <c r="R3">
-        <v>54.67425149171278</v>
+        <v>739.8755082787501</v>
       </c>
       <c r="S3">
-        <v>0.001063501887913665</v>
+        <v>0.001324482936509649</v>
       </c>
       <c r="T3">
-        <v>0.001063501887913665</v>
+        <v>0.001397810457153676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H4">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I4">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J4">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="N4">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="O4">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="P4">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="Q4">
-        <v>52.2371074534379</v>
+        <v>93.27086777266111</v>
       </c>
       <c r="R4">
-        <v>52.2371074534379</v>
+        <v>839.4378099539499</v>
       </c>
       <c r="S4">
-        <v>0.001016095527239194</v>
+        <v>0.001502713690485014</v>
       </c>
       <c r="T4">
-        <v>0.001016095527239194</v>
+        <v>0.001585908623483911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H5">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I5">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J5">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="N5">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="O5">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="P5">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="Q5">
-        <v>48.74638146345581</v>
+        <v>69.80262732306667</v>
       </c>
       <c r="R5">
-        <v>48.74638146345581</v>
+        <v>628.2236459076</v>
       </c>
       <c r="S5">
-        <v>0.0009481953076797555</v>
+        <v>0.001124610140498137</v>
       </c>
       <c r="T5">
-        <v>0.0009481953076797555</v>
+        <v>0.001186872077606346</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H6">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I6">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J6">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="N6">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="O6">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="P6">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="Q6">
-        <v>21.91407009971834</v>
+        <v>30.99275506518334</v>
       </c>
       <c r="R6">
-        <v>21.91407009971834</v>
+        <v>185.9565303911</v>
       </c>
       <c r="S6">
-        <v>0.0004262638131672528</v>
+        <v>0.0004993331621596747</v>
       </c>
       <c r="T6">
-        <v>0.0004262638131672528</v>
+        <v>0.0003513185391977658</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>161.709841340609</v>
+        <v>177.042969</v>
       </c>
       <c r="H7">
-        <v>161.709841340609</v>
+        <v>531.128907</v>
       </c>
       <c r="I7">
-        <v>0.930587350914844</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J7">
-        <v>0.930587350914844</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="N7">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="O7">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="P7">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="Q7">
-        <v>6611.822376354294</v>
+        <v>7852.795183172161</v>
       </c>
       <c r="R7">
-        <v>6611.822376354294</v>
+        <v>70675.15664854944</v>
       </c>
       <c r="S7">
-        <v>0.1286105504502139</v>
+        <v>0.1265186345117983</v>
       </c>
       <c r="T7">
-        <v>0.1286105504502139</v>
+        <v>0.1335231020880029</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>161.709841340609</v>
+        <v>177.042969</v>
       </c>
       <c r="H8">
-        <v>161.709841340609</v>
+        <v>531.128907</v>
       </c>
       <c r="I8">
-        <v>0.930587350914844</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J8">
-        <v>0.930587350914844</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="N8">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="O8">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="P8">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="Q8">
-        <v>12694.48858816364</v>
+        <v>14873.95964141348</v>
       </c>
       <c r="R8">
-        <v>12694.48858816364</v>
+        <v>133865.6367727213</v>
       </c>
       <c r="S8">
-        <v>0.2469281647441823</v>
+        <v>0.2396386279942499</v>
       </c>
       <c r="T8">
-        <v>0.2469281647441823</v>
+        <v>0.2529057724450962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>161.709841340609</v>
+        <v>177.042969</v>
       </c>
       <c r="H9">
-        <v>161.709841340609</v>
+        <v>531.128907</v>
       </c>
       <c r="I9">
-        <v>0.930587350914844</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J9">
-        <v>0.930587350914844</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="N9">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="O9">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="P9">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="Q9">
-        <v>12128.62263961415</v>
+        <v>16875.49319719815</v>
       </c>
       <c r="R9">
-        <v>12128.62263961415</v>
+        <v>151879.4387747833</v>
       </c>
       <c r="S9">
-        <v>0.2359211644072932</v>
+        <v>0.2718859089306065</v>
       </c>
       <c r="T9">
-        <v>0.2359211644072932</v>
+        <v>0.2869383637794907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>161.709841340609</v>
+        <v>177.042969</v>
       </c>
       <c r="H10">
-        <v>161.709841340609</v>
+        <v>531.128907</v>
       </c>
       <c r="I10">
-        <v>0.930587350914844</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J10">
-        <v>0.930587350914844</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="N10">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="O10">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="P10">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="Q10">
-        <v>11318.13177718413</v>
+        <v>12629.38568780254</v>
       </c>
       <c r="R10">
-        <v>11318.13177718413</v>
+        <v>113664.4711902228</v>
       </c>
       <c r="S10">
-        <v>0.2201558171219856</v>
+        <v>0.2034756535313288</v>
       </c>
       <c r="T10">
-        <v>0.2201558171219856</v>
+        <v>0.2147407025354287</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>161.709841340609</v>
+        <v>177.042969</v>
       </c>
       <c r="H11">
-        <v>161.709841340609</v>
+        <v>531.128907</v>
       </c>
       <c r="I11">
-        <v>0.930587350914844</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J11">
-        <v>0.930587350914844</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.4643640952541</v>
+        <v>31.673201</v>
       </c>
       <c r="N11">
-        <v>31.4643640952541</v>
+        <v>63.346402</v>
       </c>
       <c r="O11">
-        <v>0.1063539646158653</v>
+        <v>0.09695020451298475</v>
       </c>
       <c r="P11">
-        <v>0.1063539646158653</v>
+        <v>0.0667919679942799</v>
       </c>
       <c r="Q11">
-        <v>5088.097325726695</v>
+        <v>5607.517542773769</v>
       </c>
       <c r="R11">
-        <v>5088.097325726695</v>
+        <v>33645.10525664262</v>
       </c>
       <c r="S11">
-        <v>0.09897165419116913</v>
+        <v>0.09034432274930483</v>
       </c>
       <c r="T11">
-        <v>0.09897165419116913</v>
+        <v>0.06356404480691727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>11.3654884633482</v>
+        <v>0.06082233333333334</v>
       </c>
       <c r="H12">
-        <v>11.3654884633482</v>
+        <v>0.182467</v>
       </c>
       <c r="I12">
-        <v>0.06540467613645728</v>
+        <v>0.0003201374858976194</v>
       </c>
       <c r="J12">
-        <v>0.06540467613645728</v>
+        <v>0.0003269427250482888</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.8869511066295</v>
+        <v>44.35530666666667</v>
       </c>
       <c r="N12">
-        <v>40.8869511066295</v>
+        <v>133.06592</v>
       </c>
       <c r="O12">
-        <v>0.1382036305606122</v>
+        <v>0.1357695438667374</v>
       </c>
       <c r="P12">
-        <v>0.1382036305606122</v>
+        <v>0.1403037013810099</v>
       </c>
       <c r="Q12">
-        <v>464.7001711038795</v>
+        <v>2.697793247182223</v>
       </c>
       <c r="R12">
-        <v>464.7001711038795</v>
+        <v>24.28013922464</v>
       </c>
       <c r="S12">
-        <v>0.009039163697699429</v>
+        <v>4.346492043496385E-05</v>
       </c>
       <c r="T12">
-        <v>0.009039163697699429</v>
+        <v>4.587127446386876E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>11.3654884633482</v>
+        <v>0.06082233333333334</v>
       </c>
       <c r="H13">
-        <v>11.3654884633482</v>
+        <v>0.182467</v>
       </c>
       <c r="I13">
-        <v>0.06540467613645728</v>
+        <v>0.0003201374858976194</v>
       </c>
       <c r="J13">
-        <v>0.06540467613645728</v>
+        <v>0.0003269427250482888</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>78.501645186982</v>
+        <v>84.01327500000001</v>
       </c>
       <c r="N13">
-        <v>78.501645186982</v>
+        <v>252.039825</v>
       </c>
       <c r="O13">
-        <v>0.2653465733242898</v>
+        <v>0.2571607521783362</v>
       </c>
       <c r="P13">
-        <v>0.2653465733242898</v>
+        <v>0.2657488885427764</v>
       </c>
       <c r="Q13">
-        <v>892.2095427264977</v>
+        <v>5.109883416475001</v>
       </c>
       <c r="R13">
-        <v>892.2095427264977</v>
+        <v>45.98895074827501</v>
       </c>
       <c r="S13">
-        <v>0.01735490669219389</v>
+        <v>8.232679667391328E-05</v>
       </c>
       <c r="T13">
-        <v>0.01735490669219389</v>
+        <v>8.688466579872929E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>11.3654884633482</v>
+        <v>0.06082233333333334</v>
       </c>
       <c r="H14">
-        <v>11.3654884633482</v>
+        <v>0.182467</v>
       </c>
       <c r="I14">
-        <v>0.06540467613645728</v>
+        <v>0.0003201374858976194</v>
       </c>
       <c r="J14">
-        <v>0.06540467613645728</v>
+        <v>0.0003269427250482888</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>75.00237795711929</v>
+        <v>95.31862966666665</v>
       </c>
       <c r="N14">
-        <v>75.00237795711929</v>
+        <v>285.955889</v>
       </c>
       <c r="O14">
-        <v>0.2535185591931411</v>
+        <v>0.291765920346377</v>
       </c>
       <c r="P14">
-        <v>0.2535185591931411</v>
+        <v>0.3015097303531755</v>
       </c>
       <c r="Q14">
-        <v>852.4386613953207</v>
+        <v>5.797501466462555</v>
       </c>
       <c r="R14">
-        <v>852.4386613953207</v>
+        <v>52.177513198163</v>
       </c>
       <c r="S14">
-        <v>0.01658129925860867</v>
+        <v>9.34052082102942E-05</v>
       </c>
       <c r="T14">
-        <v>0.01658129925860867</v>
+        <v>9.857641287024194E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>11.3654884633482</v>
+        <v>0.06082233333333334</v>
       </c>
       <c r="H15">
-        <v>11.3654884633482</v>
+        <v>0.182467</v>
       </c>
       <c r="I15">
-        <v>0.06540467613645728</v>
+        <v>0.0003201374858976194</v>
       </c>
       <c r="J15">
-        <v>0.06540467613645728</v>
+        <v>0.0003269427250482888</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>69.990370922106</v>
+        <v>71.335144</v>
       </c>
       <c r="N15">
-        <v>69.990370922106</v>
+        <v>214.005432</v>
       </c>
       <c r="O15">
-        <v>0.2365772723060918</v>
+        <v>0.2183535790955647</v>
       </c>
       <c r="P15">
-        <v>0.2365772723060918</v>
+        <v>0.2256457117287584</v>
       </c>
       <c r="Q15">
-        <v>795.4747532606571</v>
+        <v>4.338769906749333</v>
       </c>
       <c r="R15">
-        <v>795.4747532606571</v>
+        <v>39.048929160744</v>
       </c>
       <c r="S15">
-        <v>0.0154732598764264</v>
+        <v>6.990316584840104E-05</v>
       </c>
       <c r="T15">
-        <v>0.0154732598764264</v>
+        <v>7.37732238880609E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.06082233333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.182467</v>
+      </c>
+      <c r="I16">
+        <v>0.0003201374858976194</v>
+      </c>
+      <c r="J16">
+        <v>0.0003269427250482888</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>31.673201</v>
+      </c>
+      <c r="N16">
+        <v>63.346402</v>
+      </c>
+      <c r="O16">
+        <v>0.09695020451298475</v>
+      </c>
+      <c r="P16">
+        <v>0.0667919679942799</v>
+      </c>
+      <c r="Q16">
+        <v>1.926437988955667</v>
+      </c>
+      <c r="R16">
+        <v>11.558627933734</v>
+      </c>
+      <c r="S16">
+        <v>3.103739473004697E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.183714802738796E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.042174</v>
+      </c>
+      <c r="H17">
+        <v>0.126522</v>
+      </c>
+      <c r="I17">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J17">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>44.35530666666667</v>
+      </c>
+      <c r="N17">
+        <v>133.06592</v>
+      </c>
+      <c r="O17">
+        <v>0.1357695438667374</v>
+      </c>
+      <c r="P17">
+        <v>0.1403037013810099</v>
+      </c>
+      <c r="Q17">
+        <v>1.87064070336</v>
+      </c>
+      <c r="R17">
+        <v>16.83576633024</v>
+      </c>
+      <c r="S17">
+        <v>3.013842866530658E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.180698640147316E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.042174</v>
+      </c>
+      <c r="H18">
+        <v>0.126522</v>
+      </c>
+      <c r="I18">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J18">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>84.01327500000001</v>
+      </c>
+      <c r="N18">
+        <v>252.039825</v>
+      </c>
+      <c r="O18">
+        <v>0.2571607521783362</v>
+      </c>
+      <c r="P18">
+        <v>0.2657488885427764</v>
+      </c>
+      <c r="Q18">
+        <v>3.54317585985</v>
+      </c>
+      <c r="R18">
+        <v>31.88858273865</v>
+      </c>
+      <c r="S18">
+        <v>5.708512207016532E-05</v>
+      </c>
+      <c r="T18">
+        <v>6.024553308919874E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.042174</v>
+      </c>
+      <c r="H19">
+        <v>0.126522</v>
+      </c>
+      <c r="I19">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J19">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>95.31862966666665</v>
+      </c>
+      <c r="N19">
+        <v>285.955889</v>
+      </c>
+      <c r="O19">
+        <v>0.291765920346377</v>
+      </c>
+      <c r="P19">
+        <v>0.3015097303531755</v>
+      </c>
+      <c r="Q19">
+        <v>4.019967887561999</v>
+      </c>
+      <c r="R19">
+        <v>36.17971098805799</v>
+      </c>
+      <c r="S19">
+        <v>6.476685512000987E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.835255092246132E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.042174</v>
+      </c>
+      <c r="H20">
+        <v>0.126522</v>
+      </c>
+      <c r="I20">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J20">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>71.335144</v>
+      </c>
+      <c r="N20">
+        <v>214.005432</v>
+      </c>
+      <c r="O20">
+        <v>0.2183535790955647</v>
+      </c>
+      <c r="P20">
+        <v>0.2256457117287584</v>
+      </c>
+      <c r="Q20">
+        <v>3.008488363056</v>
+      </c>
+      <c r="R20">
+        <v>27.076395267504</v>
+      </c>
+      <c r="S20">
+        <v>4.84706185199044E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.115410366129349E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.042174</v>
+      </c>
+      <c r="H21">
+        <v>0.126522</v>
+      </c>
+      <c r="I21">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J21">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>31.673201</v>
+      </c>
+      <c r="N21">
+        <v>63.346402</v>
+      </c>
+      <c r="O21">
+        <v>0.09695020451298475</v>
+      </c>
+      <c r="P21">
+        <v>0.0667919679942799</v>
+      </c>
+      <c r="Q21">
+        <v>1.335785578974</v>
+      </c>
+      <c r="R21">
+        <v>8.014713473843999</v>
+      </c>
+      <c r="S21">
+        <v>2.152122441885383E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.51418045055883E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.8636825</v>
+      </c>
+      <c r="H22">
+        <v>23.727365</v>
+      </c>
+      <c r="I22">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J22">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>44.35530666666667</v>
+      </c>
+      <c r="N22">
+        <v>133.06592</v>
+      </c>
+      <c r="O22">
+        <v>0.1357695438667374</v>
+      </c>
+      <c r="P22">
+        <v>0.1403037013810099</v>
+      </c>
+      <c r="Q22">
+        <v>526.2172754834667</v>
+      </c>
+      <c r="R22">
+        <v>3157.3036529008</v>
+      </c>
+      <c r="S22">
+        <v>0.008478037386401479</v>
+      </c>
+      <c r="T22">
+        <v>0.005964938713407866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.8636825</v>
+      </c>
+      <c r="H23">
+        <v>23.727365</v>
+      </c>
+      <c r="I23">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J23">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>84.01327500000001</v>
+      </c>
+      <c r="N23">
+        <v>252.039825</v>
+      </c>
+      <c r="O23">
+        <v>0.2571607521783362</v>
+      </c>
+      <c r="P23">
+        <v>0.2657488885427764</v>
+      </c>
+      <c r="Q23">
+        <v>996.7068203851876</v>
+      </c>
+      <c r="R23">
+        <v>5980.240922311125</v>
+      </c>
+      <c r="S23">
+        <v>0.01605822932883255</v>
+      </c>
+      <c r="T23">
+        <v>0.01129817544163858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>11.3654884633482</v>
-      </c>
-      <c r="H16">
-        <v>11.3654884633482</v>
-      </c>
-      <c r="I16">
-        <v>0.06540467613645728</v>
-      </c>
-      <c r="J16">
-        <v>0.06540467613645728</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>31.4643640952541</v>
-      </c>
-      <c r="N16">
-        <v>31.4643640952541</v>
-      </c>
-      <c r="O16">
-        <v>0.1063539646158653</v>
-      </c>
-      <c r="P16">
-        <v>0.1063539646158653</v>
-      </c>
-      <c r="Q16">
-        <v>357.6078671311978</v>
-      </c>
-      <c r="R16">
-        <v>357.6078671311978</v>
-      </c>
-      <c r="S16">
-        <v>0.006956046611528907</v>
-      </c>
-      <c r="T16">
-        <v>0.006956046611528907</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.8636825</v>
+      </c>
+      <c r="H24">
+        <v>23.727365</v>
+      </c>
+      <c r="I24">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J24">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>95.31862966666665</v>
+      </c>
+      <c r="N24">
+        <v>285.955889</v>
+      </c>
+      <c r="O24">
+        <v>0.291765920346377</v>
+      </c>
+      <c r="P24">
+        <v>0.3015097303531755</v>
+      </c>
+      <c r="Q24">
+        <v>1130.829958700414</v>
+      </c>
+      <c r="R24">
+        <v>6784.979752202484</v>
+      </c>
+      <c r="S24">
+        <v>0.01821912566195515</v>
+      </c>
+      <c r="T24">
+        <v>0.01281852898640811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.8636825</v>
+      </c>
+      <c r="H25">
+        <v>23.727365</v>
+      </c>
+      <c r="I25">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J25">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>71.335144</v>
+      </c>
+      <c r="N25">
+        <v>214.005432</v>
+      </c>
+      <c r="O25">
+        <v>0.2183535790955647</v>
+      </c>
+      <c r="P25">
+        <v>0.2256457117287584</v>
+      </c>
+      <c r="Q25">
+        <v>846.29749950778</v>
+      </c>
+      <c r="R25">
+        <v>5077.78499704668</v>
+      </c>
+      <c r="S25">
+        <v>0.01363494163936941</v>
+      </c>
+      <c r="T25">
+        <v>0.009593209788173971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.8636825</v>
+      </c>
+      <c r="H26">
+        <v>23.727365</v>
+      </c>
+      <c r="I26">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J26">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>31.673201</v>
+      </c>
+      <c r="N26">
+        <v>63.346402</v>
+      </c>
+      <c r="O26">
+        <v>0.09695020451298475</v>
+      </c>
+      <c r="P26">
+        <v>0.0667919679942799</v>
+      </c>
+      <c r="Q26">
+        <v>375.7608004226825</v>
+      </c>
+      <c r="R26">
+        <v>1503.04320169073</v>
+      </c>
+      <c r="S26">
+        <v>0.006053989982371339</v>
+      </c>
+      <c r="T26">
+        <v>0.00283962569563189</v>
       </c>
     </row>
   </sheetData>
